--- a/src/main/resources/inputs/Security/criminalite-par-region.xlsx
+++ b/src/main/resources/inputs/Security/criminalite-par-region.xlsx
@@ -34,16 +34,16 @@
     <t xml:space="preserve">indicateur</t>
   </si>
   <si>
-    <t xml:space="preserve">unite_de_compte</t>
+    <t xml:space="preserve">unite de compte</t>
   </si>
   <si>
     <t xml:space="preserve">nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">taux_pour_mille</t>
+    <t xml:space="preserve">taux pour mille</t>
   </si>
   <si>
-    <t xml:space="preserve">insee_pop</t>
+    <t xml:space="preserve">Insee pop</t>
   </si>
   <si>
     <t xml:space="preserve">Homicides</t>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G2917"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
